--- a/模型指标记录.xlsx
+++ b/模型指标记录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aaron\Desktop\东证实习 2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C0F00D6-7E3B-4372-BE19-AB99624FBC7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02378DB2-1E6A-4F84-A9AB-1F3B65CDA649}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -127,7 +127,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>因子分部正常了，但是影响力几乎无</t>
+    <t>因子分布正常了，但是影响力几乎无</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -459,7 +459,7 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="H6" sqref="H6:I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -583,7 +583,7 @@
         <v>2.9610000000000001E-3</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.4">
